--- a/2023/england_premier-league_2023-2024.xlsx
+++ b/2023/england_premier-league_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V50"/>
+  <dimension ref="A1:V60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,7 +757,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -765,63 +765,63 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.14</v>
+        <v>2.72</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>15/06/2023 10:17</t>
+          <t>15/06/2023 10:28</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.39</v>
+        <v>3.98</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
+          <t>12/08/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>15/06/2023 10:28</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
           <t>12/08/2023 15:54</t>
         </is>
       </c>
-      <c r="N4" t="n">
-        <v>3.43</v>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>15/06/2023 10:17</t>
-        </is>
-      </c>
-      <c r="P4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>12/08/2023 15:40</t>
-        </is>
-      </c>
       <c r="R4" t="n">
-        <v>3.37</v>
+        <v>2.72</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>15/06/2023 10:17</t>
+          <t>15/06/2023 10:28</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>3.3</v>
+        <v>2.17</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 15:57</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/everton-fulham/6m8qJGy2/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/sheffield-utd-crystal-palace/hjTJs0E2/</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -1041,63 +1041,63 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>2.72</v>
+        <v>2.14</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>15/06/2023 10:28</t>
+          <t>15/06/2023 10:17</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>3.98</v>
+        <v>2.39</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:59</t>
+          <t>12/08/2023 15:54</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>15/06/2023 10:28</t>
+          <t>15/06/2023 10:17</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>3.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:40</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.72</v>
+        <v>3.37</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>15/06/2023 10:28</t>
+          <t>15/06/2023 10:17</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>2.17</v>
+        <v>3.3</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>12/08/2023 15:54</t>
+          <t>12/08/2023 15:57</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/sheffield-utd-crystal-palace/hjTJs0E2/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/everton-fulham/6m8qJGy2/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Nottingham</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.13</v>
+        <v>1.26</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,48 +2528,48 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.45</v>
+        <v>1.38</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
+          <t>26/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>6.29</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>26/08/2023 15:56</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>11.33</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>13/08/2023 09:01</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>8.51</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>26/08/2023 15:59</t>
         </is>
       </c>
-      <c r="N23" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="P23" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:43</t>
-        </is>
-      </c>
-      <c r="R23" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>13/08/2023 09:01</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>26/08/2023 15:59</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/everton-wolves/294i5fCQ/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/manchester-united-nottingham/4IjJ0EKs/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Brentford</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="I24" t="n">
         <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.93</v>
+        <v>2.13</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.16</v>
+        <v>2.45</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>26/08/2023 15:55</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 15:51</t>
+          <t>26/08/2023 15:43</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.3</v>
+        <v>3.78</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.81</v>
+        <v>3.14</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 15:57</t>
+          <t>26/08/2023 15:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/brentford-crystal-palace/EmOdqDk7/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/everton-wolves/294i5fCQ/</t>
         </is>
       </c>
     </row>
@@ -2689,22 +2689,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Brentford</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1.26</v>
+        <v>1.93</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>2.16</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>26/08/2023 15:39</t>
+          <t>26/08/2023 15:55</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>6.29</v>
+        <v>3.49</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>6.29</v>
+        <v>3.37</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:51</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>11.33</v>
+        <v>4.3</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>10.32</v>
+        <v>3.81</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>26/08/2023 15:44</t>
+          <t>26/08/2023 15:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/arsenal-fulham/6NOhpgz1/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/brentford-crystal-palace/EmOdqDk7/</t>
         </is>
       </c>
     </row>
@@ -2781,15 +2781,15 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Nottingham</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2804,11 +2804,11 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:39</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2820,11 +2820,11 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>5.3</v>
+        <v>6.29</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>26/08/2023 15:56</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="R26" t="n">
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>8.51</v>
+        <v>10.32</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>26/08/2023 15:59</t>
+          <t>26/08/2023 15:44</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/manchester-united-nottingham/4IjJ0EKs/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/arsenal-fulham/6NOhpgz1/</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="G38" t="n">
@@ -3893,14 +3893,14 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Wolves</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="n">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>4.49</v>
+        <v>3.55</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>4.67</v>
+        <v>3.61</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>03/09/2023 14:57</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>5.35</v>
+        <v>4.48</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>5.02</v>
+        <v>4.54</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>03/09/2023 14:35</t>
+          <t>03/09/2023 14:58</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/liverpool-aston-villa/MBdb1oBh/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/crystal-palace-wolves/vm7g2Ren/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,14 +3985,14 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Wolves</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.55</v>
+        <v>4.49</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.61</v>
+        <v>4.67</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.48</v>
+        <v>5.35</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.54</v>
+        <v>5.02</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>03/09/2023 14:58</t>
+          <t>03/09/2023 14:35</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/crystal-palace-wolves/vm7g2Ren/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/liverpool-aston-villa/MBdb1oBh/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Aston Villa</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Sheffield Utd</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>1.88</v>
+        <v>1.29</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>28/08/2023 09:02</t>
+          <t>28/08/2023 11:55</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.98</v>
+        <v>1.3</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.72</v>
+        <v>5.56</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>28/08/2023 09:02</t>
+          <t>28/08/2023 11:55</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.66</v>
+        <v>6.31</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.91</v>
+        <v>9.48</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>28/08/2023 09:02</t>
+          <t>28/08/2023 11:55</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.08</v>
+        <v>9.4</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>16/09/2023 15:53</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/aston-villa-crystal-palace/SUEBdNPN/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/tottenham-sheffield-utd/nZoxDrA4/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fulham</t>
+          <t>West Ham</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,38 +4353,38 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Luton</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>1.68</v>
+        <v>6.22</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 11:54</t>
+          <t>28/08/2023 09:02</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.69</v>
+        <v>5.49</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>16/09/2023 15:36</t>
+          <t>16/09/2023 15:58</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.8</v>
+        <v>4.81</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 11:54</t>
+          <t>28/08/2023 09:02</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.82</v>
+        <v>4.3</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
@@ -4392,24 +4392,24 @@
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.97</v>
+        <v>1.44</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 11:54</t>
+          <t>28/08/2023 09:02</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.68</v>
+        <v>1.63</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>16/09/2023 15:59</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/fulham-luton/bD5si1mo/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/west-ham-manchester-city/UcysC2PA/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>Fulham</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,63 +4445,63 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Brighton</t>
+          <t>Luton</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 09:02</t>
+          <t>28/08/2023 11:54</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.07</v>
+        <v>1.69</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>16/09/2023 15:36</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>28/08/2023 11:54</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>16/09/2023 15:59</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>28/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q44" t="inlineStr">
+      <c r="R44" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>28/08/2023 11:54</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="U44" t="inlineStr">
         <is>
           <t>16/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R44" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>28/08/2023 09:02</t>
-        </is>
-      </c>
-      <c r="T44" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>16/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/manchester-united-brighton/0IqQFpQo/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/fulham-luton/bD5si1mo/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Aston Villa</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Sheffield Utd</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="I45" t="n">
         <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>1.29</v>
+        <v>1.88</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>28/08/2023 11:55</t>
+          <t>28/08/2023 09:02</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>5.56</v>
+        <v>3.72</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>28/08/2023 11:55</t>
+          <t>28/08/2023 09:02</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>6.31</v>
+        <v>3.66</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>9.48</v>
+        <v>3.91</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>28/08/2023 11:55</t>
+          <t>28/08/2023 09:02</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>9.4</v>
+        <v>4.08</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:53</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/tottenham-sheffield-utd/nZoxDrA4/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/aston-villa-crystal-palace/SUEBdNPN/</t>
         </is>
       </c>
     </row>
@@ -4621,7 +4621,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>West Ham</t>
+          <t>Manchester Utd</t>
         </is>
       </c>
       <c r="G46" t="n">
@@ -4629,14 +4629,14 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Brighton</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>6.22</v>
+        <v>1.88</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>5.49</v>
+        <v>2.07</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>16/09/2023 15:58</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.81</v>
+        <v>3.99</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>1.44</v>
+        <v>3.6</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,16 +4676,16 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>1.63</v>
+        <v>3.53</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/england/premier-league/west-ham-manchester-city/UcysC2PA/</t>
+          <t>https://www.betexplorer.com/football/england/premier-league/manchester-united-brighton/0IqQFpQo/</t>
         </is>
       </c>
     </row>
@@ -5054,6 +5054,926 @@
       <c r="V50" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/england/premier-league/nottingham-burnley/8rmYDOfb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Fulham</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P51" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/crystal-palace-fulham/0xCBRsPc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Nottingham</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:17</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>15.94</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>18</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:28</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/manchester-city-nottingham/GSENOu9G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45192.66666666666</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Luton</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Wolves</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:11</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:11</t>
+        </is>
+      </c>
+      <c r="P53" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:11</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/luton-wolves/Mi0KPLgA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45192.77083333334</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Brentford</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Everton</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>3</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P54" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>23/09/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/brentford-everton/Eowg909T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45192.875</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Manchester Utd</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:11</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:11</t>
+        </is>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:11</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>23/09/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/burnley-manchester-united/YVJP3vXj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Chelsea</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Aston Villa</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P56" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/chelsea-aston-villa/nZ77SN9i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>West Ham</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P57" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/liverpool-west-ham/r11GQ1v4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P58" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/arsenal-tottenham/zevkAtfN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45193.625</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Brighton</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:30</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="P59" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:53</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:01</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/brighton-bournemouth/fuLL4KHp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>england</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>premier-league</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45193.72916666666</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sheffield Utd</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Newcastle</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:12</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:29</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P60" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:27</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>05/09/2023 12:12</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>24/09/2023 17:27</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/england/premier-league/sheffield-utd-newcastle-utd/fJDRNaOM/</t>
         </is>
       </c>
     </row>
